--- a/data/output.xlsx
+++ b/data/output.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT39"/>
+  <dimension ref="A1:AX51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -671,6 +671,26 @@
           <t>level3_hasDevtools</t>
         </is>
       </c>
+      <c r="AU1" s="2" t="inlineStr">
+        <is>
+          <t>level2_gpuVendor</t>
+        </is>
+      </c>
+      <c r="AV1" s="2" t="inlineStr">
+        <is>
+          <t>level2_gpuRenderer</t>
+        </is>
+      </c>
+      <c r="AW1" s="2" t="inlineStr">
+        <is>
+          <t>level3_gpuVendor</t>
+        </is>
+      </c>
+      <c r="AX1" s="2" t="inlineStr">
+        <is>
+          <t>level3_gpuRenderer</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
@@ -849,6 +869,10 @@
       <c r="AT2" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="AU2" s="3" t="inlineStr"/>
+      <c r="AV2" s="3" t="inlineStr"/>
+      <c r="AW2" s="3" t="inlineStr"/>
+      <c r="AX2" s="3" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
@@ -1027,6 +1051,10 @@
       <c r="AT3" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="AU3" s="3" t="inlineStr"/>
+      <c r="AV3" s="3" t="inlineStr"/>
+      <c r="AW3" s="3" t="inlineStr"/>
+      <c r="AX3" s="3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
@@ -1201,6 +1229,10 @@
       <c r="AT4" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="AU4" s="3" t="inlineStr"/>
+      <c r="AV4" s="3" t="inlineStr"/>
+      <c r="AW4" s="3" t="inlineStr"/>
+      <c r="AX4" s="3" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
@@ -1379,6 +1411,10 @@
       <c r="AT5" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="AU5" s="3" t="inlineStr"/>
+      <c r="AV5" s="3" t="inlineStr"/>
+      <c r="AW5" s="3" t="inlineStr"/>
+      <c r="AX5" s="3" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
@@ -1559,6 +1595,10 @@
       <c r="AT6" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="AU6" s="3" t="inlineStr"/>
+      <c r="AV6" s="3" t="inlineStr"/>
+      <c r="AW6" s="3" t="inlineStr"/>
+      <c r="AX6" s="3" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
@@ -1739,6 +1779,10 @@
       <c r="AT7" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="AU7" s="3" t="inlineStr"/>
+      <c r="AV7" s="3" t="inlineStr"/>
+      <c r="AW7" s="3" t="inlineStr"/>
+      <c r="AX7" s="3" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
@@ -1913,6 +1957,10 @@
       <c r="AT8" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="AU8" s="3" t="inlineStr"/>
+      <c r="AV8" s="3" t="inlineStr"/>
+      <c r="AW8" s="3" t="inlineStr"/>
+      <c r="AX8" s="3" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
@@ -2093,6 +2141,10 @@
       <c r="AT9" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="AU9" s="3" t="inlineStr"/>
+      <c r="AV9" s="3" t="inlineStr"/>
+      <c r="AW9" s="3" t="inlineStr"/>
+      <c r="AX9" s="3" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
@@ -2271,6 +2323,10 @@
       <c r="AT10" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="AU10" s="3" t="inlineStr"/>
+      <c r="AV10" s="3" t="inlineStr"/>
+      <c r="AW10" s="3" t="inlineStr"/>
+      <c r="AX10" s="3" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
@@ -2451,6 +2507,10 @@
       <c r="AT11" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="AU11" s="3" t="inlineStr"/>
+      <c r="AV11" s="3" t="inlineStr"/>
+      <c r="AW11" s="3" t="inlineStr"/>
+      <c r="AX11" s="3" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
@@ -2629,6 +2689,10 @@
       <c r="AT12" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="AU12" s="3" t="inlineStr"/>
+      <c r="AV12" s="3" t="inlineStr"/>
+      <c r="AW12" s="3" t="inlineStr"/>
+      <c r="AX12" s="3" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
@@ -2805,6 +2869,10 @@
       <c r="AT13" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="AU13" s="3" t="inlineStr"/>
+      <c r="AV13" s="3" t="inlineStr"/>
+      <c r="AW13" s="3" t="inlineStr"/>
+      <c r="AX13" s="3" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
@@ -2985,6 +3053,10 @@
       <c r="AT14" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="AU14" s="3" t="inlineStr"/>
+      <c r="AV14" s="3" t="inlineStr"/>
+      <c r="AW14" s="3" t="inlineStr"/>
+      <c r="AX14" s="3" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
@@ -3163,6 +3235,10 @@
       <c r="AT15" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="AU15" s="3" t="inlineStr"/>
+      <c r="AV15" s="3" t="inlineStr"/>
+      <c r="AW15" s="3" t="inlineStr"/>
+      <c r="AX15" s="3" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
@@ -3341,6 +3417,10 @@
       <c r="AT16" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="AU16" s="3" t="inlineStr"/>
+      <c r="AV16" s="3" t="inlineStr"/>
+      <c r="AW16" s="3" t="inlineStr"/>
+      <c r="AX16" s="3" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
@@ -3519,6 +3599,10 @@
       <c r="AT17" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="AU17" s="3" t="inlineStr"/>
+      <c r="AV17" s="3" t="inlineStr"/>
+      <c r="AW17" s="3" t="inlineStr"/>
+      <c r="AX17" s="3" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
@@ -3699,6 +3783,10 @@
       <c r="AT18" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="AU18" s="3" t="inlineStr"/>
+      <c r="AV18" s="3" t="inlineStr"/>
+      <c r="AW18" s="3" t="inlineStr"/>
+      <c r="AX18" s="3" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
@@ -3879,6 +3967,10 @@
       <c r="AT19" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="AU19" s="3" t="inlineStr"/>
+      <c r="AV19" s="3" t="inlineStr"/>
+      <c r="AW19" s="3" t="inlineStr"/>
+      <c r="AX19" s="3" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
@@ -4059,6 +4151,10 @@
       <c r="AT20" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="AU20" s="3" t="inlineStr"/>
+      <c r="AV20" s="3" t="inlineStr"/>
+      <c r="AW20" s="3" t="inlineStr"/>
+      <c r="AX20" s="3" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
@@ -4239,6 +4335,10 @@
       <c r="AT21" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="AU21" s="3" t="inlineStr"/>
+      <c r="AV21" s="3" t="inlineStr"/>
+      <c r="AW21" s="3" t="inlineStr"/>
+      <c r="AX21" s="3" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
@@ -4419,6 +4519,10 @@
       <c r="AT22" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="AU22" s="3" t="inlineStr"/>
+      <c r="AV22" s="3" t="inlineStr"/>
+      <c r="AW22" s="3" t="inlineStr"/>
+      <c r="AX22" s="3" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
@@ -4599,6 +4703,10 @@
       <c r="AT23" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="AU23" s="3" t="inlineStr"/>
+      <c r="AV23" s="3" t="inlineStr"/>
+      <c r="AW23" s="3" t="inlineStr"/>
+      <c r="AX23" s="3" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
@@ -4779,6 +4887,10 @@
       <c r="AT24" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="AU24" s="3" t="inlineStr"/>
+      <c r="AV24" s="3" t="inlineStr"/>
+      <c r="AW24" s="3" t="inlineStr"/>
+      <c r="AX24" s="3" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
@@ -4959,6 +5071,10 @@
       <c r="AT25" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="AU25" s="3" t="inlineStr"/>
+      <c r="AV25" s="3" t="inlineStr"/>
+      <c r="AW25" s="3" t="inlineStr"/>
+      <c r="AX25" s="3" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
@@ -5139,6 +5255,10 @@
       <c r="AT26" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="AU26" s="3" t="inlineStr"/>
+      <c r="AV26" s="3" t="inlineStr"/>
+      <c r="AW26" s="3" t="inlineStr"/>
+      <c r="AX26" s="3" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
@@ -5319,6 +5439,10 @@
       <c r="AT27" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="AU27" s="3" t="inlineStr"/>
+      <c r="AV27" s="3" t="inlineStr"/>
+      <c r="AW27" s="3" t="inlineStr"/>
+      <c r="AX27" s="3" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
@@ -5499,6 +5623,10 @@
       <c r="AT28" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="AU28" s="3" t="inlineStr"/>
+      <c r="AV28" s="3" t="inlineStr"/>
+      <c r="AW28" s="3" t="inlineStr"/>
+      <c r="AX28" s="3" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
@@ -5679,6 +5807,10 @@
       <c r="AT29" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="AU29" s="3" t="inlineStr"/>
+      <c r="AV29" s="3" t="inlineStr"/>
+      <c r="AW29" s="3" t="inlineStr"/>
+      <c r="AX29" s="3" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
@@ -5859,6 +5991,10 @@
       <c r="AT30" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="AU30" s="3" t="inlineStr"/>
+      <c r="AV30" s="3" t="inlineStr"/>
+      <c r="AW30" s="3" t="inlineStr"/>
+      <c r="AX30" s="3" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
@@ -6039,6 +6175,10 @@
       <c r="AT31" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="AU31" s="3" t="inlineStr"/>
+      <c r="AV31" s="3" t="inlineStr"/>
+      <c r="AW31" s="3" t="inlineStr"/>
+      <c r="AX31" s="3" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
@@ -6213,6 +6353,10 @@
       <c r="AT32" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="AU32" s="3" t="inlineStr"/>
+      <c r="AV32" s="3" t="inlineStr"/>
+      <c r="AW32" s="3" t="inlineStr"/>
+      <c r="AX32" s="3" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
@@ -6387,6 +6531,10 @@
       <c r="AT33" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="AU33" s="3" t="inlineStr"/>
+      <c r="AV33" s="3" t="inlineStr"/>
+      <c r="AW33" s="3" t="inlineStr"/>
+      <c r="AX33" s="3" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
@@ -6561,6 +6709,10 @@
       <c r="AT34" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="AU34" s="3" t="inlineStr"/>
+      <c r="AV34" s="3" t="inlineStr"/>
+      <c r="AW34" s="3" t="inlineStr"/>
+      <c r="AX34" s="3" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
@@ -6735,6 +6887,10 @@
       <c r="AT35" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="AU35" s="3" t="inlineStr"/>
+      <c r="AV35" s="3" t="inlineStr"/>
+      <c r="AW35" s="3" t="inlineStr"/>
+      <c r="AX35" s="3" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
@@ -6909,6 +7065,10 @@
       <c r="AT36" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="AU36" s="3" t="inlineStr"/>
+      <c r="AV36" s="3" t="inlineStr"/>
+      <c r="AW36" s="3" t="inlineStr"/>
+      <c r="AX36" s="3" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
@@ -7083,6 +7243,10 @@
       <c r="AT37" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="AU37" s="3" t="inlineStr"/>
+      <c r="AV37" s="3" t="inlineStr"/>
+      <c r="AW37" s="3" t="inlineStr"/>
+      <c r="AX37" s="3" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
@@ -7263,6 +7427,10 @@
       <c r="AT38" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="AU38" s="3" t="inlineStr"/>
+      <c r="AV38" s="3" t="inlineStr"/>
+      <c r="AW38" s="3" t="inlineStr"/>
+      <c r="AX38" s="3" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
@@ -7442,6 +7610,2164 @@
       </c>
       <c r="AT39" s="3" t="b">
         <v>0</v>
+      </c>
+      <c r="AU39" s="3" t="inlineStr"/>
+      <c r="AV39" s="3" t="inlineStr"/>
+      <c r="AW39" s="3" t="inlineStr"/>
+      <c r="AX39" s="3" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t>19959739558</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-11T11:22:58</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>114.246.206.242</t>
+        </is>
+      </c>
+      <c r="D40" s="3" t="inlineStr"/>
+      <c r="E40" s="3" t="inlineStr">
+        <is>
+          <t>https://magnus-unix.github.io/fingerprint/login.html</t>
+        </is>
+      </c>
+      <c r="F40" s="3" t="inlineStr">
+        <is>
+          <t>2025/9/11 19:23:00</t>
+        </is>
+      </c>
+      <c r="G40" s="3" t="inlineStr">
+        <is>
+          <t>2025/9/11 19:23:03</t>
+        </is>
+      </c>
+      <c r="H40" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="J40" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'zh']</t>
+        </is>
+      </c>
+      <c r="K40" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="N40" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="O40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/132.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="Q40" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/132.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="R40" s="3" t="inlineStr">
+        <is>
+          <t>Win32</t>
+        </is>
+      </c>
+      <c r="S40" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'zh']</t>
+        </is>
+      </c>
+      <c r="T40" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U40" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Intel)</t>
+        </is>
+      </c>
+      <c r="V40" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Intel, Intel(R) Iris(R) Xe Graphics (0x0000A7A0) Direct3D11 vs_5_0 ps_5_0, D3D11)</t>
+        </is>
+      </c>
+      <c r="W40" s="3" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="X40" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB40" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF40" s="3" t="inlineStr">
+        <is>
+          <t>Asia/Shanghai</t>
+        </is>
+      </c>
+      <c r="AG40" s="3" t="n">
+        <v>-480</v>
+      </c>
+      <c r="AH40" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Intel)</t>
+        </is>
+      </c>
+      <c r="AI40" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Intel, Intel(R) Iris(R) Xe Graphics (0x0000A7A0) Direct3D11 vs_5_0 ps_5_0, D3D11)</t>
+        </is>
+      </c>
+      <c r="AJ40" s="3" t="inlineStr">
+        <is>
+          <t>[0, 0.001476, 0.008508, 0.025599, 0.05582, 0.100816, 0.160886, 0.235098, 0.321464, 0.417129]</t>
+        </is>
+      </c>
+      <c r="AK40" s="3" t="n">
+        <v>0.00107505</v>
+      </c>
+      <c r="AL40" s="3" t="inlineStr">
+        <is>
+          <t>[-119.61567687988281, -119.21029663085938, -118.94978332519531, -117.98768615722656, -117.09239196777344]</t>
+        </is>
+      </c>
+      <c r="AM40" s="3" t="n">
+        <v>0.09191032202215865</v>
+      </c>
+      <c r="AN40" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO40" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP40" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ40" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR40" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS40" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT40" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU40" s="3" t="inlineStr"/>
+      <c r="AV40" s="3" t="inlineStr"/>
+      <c r="AW40" s="3" t="inlineStr"/>
+      <c r="AX40" s="3" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>guest</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-11T11:23:03</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>114.246.206.242</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="inlineStr">
+        <is>
+          <t>19959739558</t>
+        </is>
+      </c>
+      <c r="E41" s="3" t="inlineStr">
+        <is>
+          <t>https://magnus-unix.github.io/fingerprint/test.html</t>
+        </is>
+      </c>
+      <c r="F41" s="3" t="inlineStr">
+        <is>
+          <t>2025/9/11 19:23:05</t>
+        </is>
+      </c>
+      <c r="G41" s="3" t="inlineStr">
+        <is>
+          <t>2025/9/11 19:23:08</t>
+        </is>
+      </c>
+      <c r="H41" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="J41" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'zh']</t>
+        </is>
+      </c>
+      <c r="K41" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="N41" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="O41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/132.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="Q41" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/132.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="R41" s="3" t="inlineStr">
+        <is>
+          <t>Win32</t>
+        </is>
+      </c>
+      <c r="S41" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'zh']</t>
+        </is>
+      </c>
+      <c r="T41" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Intel)</t>
+        </is>
+      </c>
+      <c r="V41" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Intel, Intel(R) Iris(R) Xe Graphics (0x0000A7A0) Direct3D11 vs_5_0 ps_5_0, D3D11)</t>
+        </is>
+      </c>
+      <c r="W41" s="3" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="X41" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB41" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE41" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF41" s="3" t="inlineStr">
+        <is>
+          <t>Asia/Shanghai</t>
+        </is>
+      </c>
+      <c r="AG41" s="3" t="n">
+        <v>-480</v>
+      </c>
+      <c r="AH41" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Intel)</t>
+        </is>
+      </c>
+      <c r="AI41" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Intel, Intel(R) Iris(R) Xe Graphics (0x0000A7A0) Direct3D11 vs_5_0 ps_5_0, D3D11)</t>
+        </is>
+      </c>
+      <c r="AJ41" s="3" t="inlineStr">
+        <is>
+          <t>[0, 0.001476, 0.008508, 0.025599, 0.05582, 0.100816, 0.160886, 0.235098, 0.321464, 0.417129]</t>
+        </is>
+      </c>
+      <c r="AK41" s="3" t="n">
+        <v>0.00107505</v>
+      </c>
+      <c r="AL41" s="3" t="inlineStr"/>
+      <c r="AM41" s="3" t="inlineStr"/>
+      <c r="AN41" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO41" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP41" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ41" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR41" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS41" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT41" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU41" s="3" t="inlineStr"/>
+      <c r="AV41" s="3" t="inlineStr"/>
+      <c r="AW41" s="3" t="inlineStr"/>
+      <c r="AX41" s="3" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-11T16:17:34</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>1.203.169.148</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="inlineStr">
+        <is>
+          <t>https://magnus-unix.github.io/fingerprint/login.html</t>
+        </is>
+      </c>
+      <c r="F42" s="3" t="inlineStr">
+        <is>
+          <t>2025/9/12 00:17:36</t>
+        </is>
+      </c>
+      <c r="G42" s="3" t="inlineStr">
+        <is>
+          <t>2025/9/12 00:17:39</t>
+        </is>
+      </c>
+      <c r="H42" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'zh', 'zh-TW', 'zh-HK', 'en-US', 'en']</t>
+        </is>
+      </c>
+      <c r="K42" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="O42" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="P42" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64; rv:142.0) Gecko/20100101 Firefox/142.0</t>
+        </is>
+      </c>
+      <c r="Q42" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64; rv:142.0) Gecko/20100101 Firefox/142.0</t>
+        </is>
+      </c>
+      <c r="R42" s="3" t="inlineStr">
+        <is>
+          <t>Win32</t>
+        </is>
+      </c>
+      <c r="S42" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'zh', 'zh-TW', 'zh-HK', 'en-US', 'en']</t>
+        </is>
+      </c>
+      <c r="T42" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Intel)</t>
+        </is>
+      </c>
+      <c r="V42" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Intel, Intel(R) HD Graphics Direct3D11 vs_5_0 ps_5_0), or similar</t>
+        </is>
+      </c>
+      <c r="W42" s="3" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="X42" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE42" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF42" s="3" t="inlineStr">
+        <is>
+          <t>Asia/Shanghai</t>
+        </is>
+      </c>
+      <c r="AG42" s="3" t="n">
+        <v>-480</v>
+      </c>
+      <c r="AH42" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Intel)</t>
+        </is>
+      </c>
+      <c r="AI42" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Intel, Intel(R) HD Graphics Direct3D11 vs_5_0 ps_5_0), or similar</t>
+        </is>
+      </c>
+      <c r="AJ42" s="3" t="inlineStr">
+        <is>
+          <t>[0, 0.001476, 0.008508, 0.025599, 0.05582, 0.100816, 0.160886, 0.235098, 0.321464, 0.417129]</t>
+        </is>
+      </c>
+      <c r="AK42" s="3" t="n">
+        <v>0.00107505</v>
+      </c>
+      <c r="AL42" s="3" t="inlineStr"/>
+      <c r="AM42" s="3" t="inlineStr"/>
+      <c r="AN42" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO42" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP42" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ42" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR42" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS42" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT42" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU42" s="3" t="inlineStr"/>
+      <c r="AV42" s="3" t="inlineStr"/>
+      <c r="AW42" s="3" t="inlineStr"/>
+      <c r="AX42" s="3" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>guest</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-11T16:17:39</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>1.203.169.148</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="E43" s="3" t="inlineStr">
+        <is>
+          <t>https://magnus-unix.github.io/fingerprint/test.html</t>
+        </is>
+      </c>
+      <c r="F43" s="3" t="inlineStr">
+        <is>
+          <t>2025/9/12 00:17:41</t>
+        </is>
+      </c>
+      <c r="G43" s="3" t="inlineStr">
+        <is>
+          <t>2025/9/12 00:17:44</t>
+        </is>
+      </c>
+      <c r="H43" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J43" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'zh', 'zh-TW', 'zh-HK', 'en-US', 'en']</t>
+        </is>
+      </c>
+      <c r="K43" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="O43" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="P43" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64; rv:142.0) Gecko/20100101 Firefox/142.0</t>
+        </is>
+      </c>
+      <c r="Q43" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64; rv:142.0) Gecko/20100101 Firefox/142.0</t>
+        </is>
+      </c>
+      <c r="R43" s="3" t="inlineStr">
+        <is>
+          <t>Win32</t>
+        </is>
+      </c>
+      <c r="S43" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'zh', 'zh-TW', 'zh-HK', 'en-US', 'en']</t>
+        </is>
+      </c>
+      <c r="T43" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Intel)</t>
+        </is>
+      </c>
+      <c r="V43" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Intel, Intel(R) HD Graphics Direct3D11 vs_5_0 ps_5_0), or similar</t>
+        </is>
+      </c>
+      <c r="W43" s="3" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="X43" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE43" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF43" s="3" t="inlineStr">
+        <is>
+          <t>Asia/Shanghai</t>
+        </is>
+      </c>
+      <c r="AG43" s="3" t="n">
+        <v>-480</v>
+      </c>
+      <c r="AH43" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Intel)</t>
+        </is>
+      </c>
+      <c r="AI43" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Intel, Intel(R) HD Graphics Direct3D11 vs_5_0 ps_5_0), or similar</t>
+        </is>
+      </c>
+      <c r="AJ43" s="3" t="inlineStr">
+        <is>
+          <t>[0, 0.001476, 0.008508, 0.025599, 0.05582, 0.100816, 0.160886, 0.235098, 0.321464, 0.417129]</t>
+        </is>
+      </c>
+      <c r="AK43" s="3" t="n">
+        <v>0.00107505</v>
+      </c>
+      <c r="AL43" s="3" t="inlineStr"/>
+      <c r="AM43" s="3" t="inlineStr"/>
+      <c r="AN43" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO43" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP43" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ43" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR43" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS43" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT43" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU43" s="3" t="inlineStr"/>
+      <c r="AV43" s="3" t="inlineStr"/>
+      <c r="AW43" s="3" t="inlineStr"/>
+      <c r="AX43" s="3" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>guest</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-11T16:43:05</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>1.203.169.148</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>https://magnus-unix.github.io/fingerprint/test.html</t>
+        </is>
+      </c>
+      <c r="F44" s="3" t="inlineStr">
+        <is>
+          <t>2025/9/12 00:43:06</t>
+        </is>
+      </c>
+      <c r="G44" s="3" t="inlineStr">
+        <is>
+          <t>2025/9/12 00:43:09</t>
+        </is>
+      </c>
+      <c r="H44" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J44" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'zh', 'zh-TW', 'zh-HK', 'en-US', 'en']</t>
+        </is>
+      </c>
+      <c r="K44" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="O44" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="P44" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64; rv:142.0) Gecko/20100101 Firefox/142.0</t>
+        </is>
+      </c>
+      <c r="Q44" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64; rv:142.0) Gecko/20100101 Firefox/142.0</t>
+        </is>
+      </c>
+      <c r="R44" s="3" t="inlineStr">
+        <is>
+          <t>Win32</t>
+        </is>
+      </c>
+      <c r="S44" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'zh', 'zh-TW', 'zh-HK', 'en-US', 'en']</t>
+        </is>
+      </c>
+      <c r="T44" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3" t="inlineStr"/>
+      <c r="V44" s="3" t="inlineStr"/>
+      <c r="W44" s="3" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="X44" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE44" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF44" s="3" t="inlineStr">
+        <is>
+          <t>Asia/Shanghai</t>
+        </is>
+      </c>
+      <c r="AG44" s="3" t="n">
+        <v>-480</v>
+      </c>
+      <c r="AH44" s="3" t="inlineStr"/>
+      <c r="AI44" s="3" t="inlineStr"/>
+      <c r="AJ44" s="3" t="inlineStr">
+        <is>
+          <t>[0, 0.001476, 0.008508, 0.025599, 0.05582, 0.100816, 0.160886, 0.235098, 0.321464, 0.417129]</t>
+        </is>
+      </c>
+      <c r="AK44" s="3" t="n">
+        <v>0.00107505</v>
+      </c>
+      <c r="AL44" s="3" t="inlineStr"/>
+      <c r="AM44" s="3" t="inlineStr"/>
+      <c r="AN44" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO44" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP44" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ44" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR44" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS44" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT44" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU44" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Intel)</t>
+        </is>
+      </c>
+      <c r="AV44" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Intel, Intel(R) HD Graphics Direct3D11 vs_5_0 ps_5_0), or similar</t>
+        </is>
+      </c>
+      <c r="AW44" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Intel)</t>
+        </is>
+      </c>
+      <c r="AX44" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Intel, Intel(R) HD Graphics Direct3D11 vs_5_0 ps_5_0), or similar</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-11T17:57:54</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>1.203.169.148</t>
+        </is>
+      </c>
+      <c r="D45" s="3" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="E45" s="3" t="inlineStr">
+        <is>
+          <t>https://magnus-unix.github.io/fingerprint/login.html</t>
+        </is>
+      </c>
+      <c r="F45" s="3" t="inlineStr">
+        <is>
+          <t>2025/9/12 01:57:56</t>
+        </is>
+      </c>
+      <c r="G45" s="3" t="inlineStr">
+        <is>
+          <t>2025/9/12 01:57:59</t>
+        </is>
+      </c>
+      <c r="H45" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J45" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'zh', 'zh-TW', 'zh-HK', 'en-US', 'en']</t>
+        </is>
+      </c>
+      <c r="K45" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="O45" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="P45" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64; rv:142.0) Gecko/20100101 Firefox/142.0</t>
+        </is>
+      </c>
+      <c r="Q45" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64; rv:142.0) Gecko/20100101 Firefox/142.0</t>
+        </is>
+      </c>
+      <c r="R45" s="3" t="inlineStr">
+        <is>
+          <t>Win32</t>
+        </is>
+      </c>
+      <c r="S45" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'zh', 'zh-TW', 'zh-HK', 'en-US', 'en']</t>
+        </is>
+      </c>
+      <c r="T45" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3" t="inlineStr"/>
+      <c r="V45" s="3" t="inlineStr"/>
+      <c r="W45" s="3" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="X45" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC45" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="AD45" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE45" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF45" s="3" t="inlineStr">
+        <is>
+          <t>Asia/Shanghai</t>
+        </is>
+      </c>
+      <c r="AG45" s="3" t="n">
+        <v>-480</v>
+      </c>
+      <c r="AH45" s="3" t="inlineStr"/>
+      <c r="AI45" s="3" t="inlineStr"/>
+      <c r="AJ45" s="3" t="inlineStr">
+        <is>
+          <t>[0, 0.001476, 0.008508, 0.025599, 0.05582, 0.100816, 0.160886, 0.235098, 0.321464, 0.417129]</t>
+        </is>
+      </c>
+      <c r="AK45" s="3" t="n">
+        <v>0.00107505</v>
+      </c>
+      <c r="AL45" s="3" t="inlineStr">
+        <is>
+          <t>[-126.27386474609375, -124.44215393066406, -123.66729736328125, -121.89727783203125, -119.96240234375]</t>
+        </is>
+      </c>
+      <c r="AM45" s="3" t="n">
+        <v>0.218410023371689</v>
+      </c>
+      <c r="AN45" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO45" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP45" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ45" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR45" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS45" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT45" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU45" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Intel)</t>
+        </is>
+      </c>
+      <c r="AV45" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Intel, Intel(R) HD Graphics Direct3D11 vs_5_0 ps_5_0), or similar</t>
+        </is>
+      </c>
+      <c r="AW45" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Intel)</t>
+        </is>
+      </c>
+      <c r="AX45" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Intel, Intel(R) HD Graphics Direct3D11 vs_5_0 ps_5_0), or similar</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t>guest</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-11T17:57:58</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>1.203.169.148</t>
+        </is>
+      </c>
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E46" s="3" t="inlineStr">
+        <is>
+          <t>https://magnus-unix.github.io/fingerprint/test.html</t>
+        </is>
+      </c>
+      <c r="F46" s="3" t="inlineStr">
+        <is>
+          <t>2025/9/12 01:58:01</t>
+        </is>
+      </c>
+      <c r="G46" s="3" t="inlineStr">
+        <is>
+          <t>2025/9/12 01:58:04</t>
+        </is>
+      </c>
+      <c r="H46" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J46" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'zh', 'zh-TW', 'zh-HK', 'en-US', 'en']</t>
+        </is>
+      </c>
+      <c r="K46" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="O46" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="P46" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64; rv:142.0) Gecko/20100101 Firefox/142.0</t>
+        </is>
+      </c>
+      <c r="Q46" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64; rv:142.0) Gecko/20100101 Firefox/142.0</t>
+        </is>
+      </c>
+      <c r="R46" s="3" t="inlineStr">
+        <is>
+          <t>Win32</t>
+        </is>
+      </c>
+      <c r="S46" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'zh', 'zh-TW', 'zh-HK', 'en-US', 'en']</t>
+        </is>
+      </c>
+      <c r="T46" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3" t="inlineStr"/>
+      <c r="V46" s="3" t="inlineStr"/>
+      <c r="W46" s="3" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="X46" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC46" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="AD46" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE46" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF46" s="3" t="inlineStr">
+        <is>
+          <t>Asia/Shanghai</t>
+        </is>
+      </c>
+      <c r="AG46" s="3" t="n">
+        <v>-480</v>
+      </c>
+      <c r="AH46" s="3" t="inlineStr"/>
+      <c r="AI46" s="3" t="inlineStr"/>
+      <c r="AJ46" s="3" t="inlineStr">
+        <is>
+          <t>[0, 0.001476, 0.008508, 0.025599, 0.05582, 0.100816, 0.160886, 0.235098, 0.321464, 0.417129]</t>
+        </is>
+      </c>
+      <c r="AK46" s="3" t="n">
+        <v>0.00107505</v>
+      </c>
+      <c r="AL46" s="3" t="inlineStr"/>
+      <c r="AM46" s="3" t="inlineStr"/>
+      <c r="AN46" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO46" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP46" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ46" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR46" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS46" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT46" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU46" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Intel)</t>
+        </is>
+      </c>
+      <c r="AV46" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Intel, Intel(R) HD Graphics Direct3D11 vs_5_0 ps_5_0), or similar</t>
+        </is>
+      </c>
+      <c r="AW46" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Intel)</t>
+        </is>
+      </c>
+      <c r="AX46" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Intel, Intel(R) HD Graphics Direct3D11 vs_5_0 ps_5_0), or similar</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-11T18:01:05</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>1.203.169.148</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="inlineStr"/>
+      <c r="E47" s="3" t="inlineStr">
+        <is>
+          <t>https://magnus-unix.github.io/fingerprint/login.html</t>
+        </is>
+      </c>
+      <c r="F47" s="3" t="inlineStr">
+        <is>
+          <t>2025/9/12 02:01:09</t>
+        </is>
+      </c>
+      <c r="G47" s="3" t="inlineStr">
+        <is>
+          <t>2025/9/12 02:01:10</t>
+        </is>
+      </c>
+      <c r="H47" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'zh']</t>
+        </is>
+      </c>
+      <c r="K47" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="O47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/132.0.0.0 Safari/537.36 NetType/WIFI MicroMessenger/7.0.20.1781(0x6700143B) WindowsWechat(0x63090a13) UnifiedPCWindowsWechat(0xf2541022) XWEB/16467 Flue</t>
+        </is>
+      </c>
+      <c r="Q47" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/132.0.0.0 Safari/537.36 NetType/WIFI MicroMessenger/7.0.20.1781(0x6700143B) WindowsWechat(0x63090a13) UnifiedPCWindowsWechat(0xf2541022) XWEB/16467 Flue</t>
+        </is>
+      </c>
+      <c r="R47" s="3" t="inlineStr">
+        <is>
+          <t>Win32</t>
+        </is>
+      </c>
+      <c r="S47" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'zh']</t>
+        </is>
+      </c>
+      <c r="T47" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3" t="inlineStr"/>
+      <c r="V47" s="3" t="inlineStr"/>
+      <c r="W47" s="3" t="inlineStr">
+        <is>
+          <t>denied</t>
+        </is>
+      </c>
+      <c r="X47" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA47" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB47" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC47" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="AD47" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE47" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF47" s="3" t="inlineStr">
+        <is>
+          <t>Asia/Shanghai</t>
+        </is>
+      </c>
+      <c r="AG47" s="3" t="n">
+        <v>-480</v>
+      </c>
+      <c r="AH47" s="3" t="inlineStr"/>
+      <c r="AI47" s="3" t="inlineStr"/>
+      <c r="AJ47" s="3" t="inlineStr">
+        <is>
+          <t>[0, 0.001476, 0.008508, 0.025599, 0.05582, 0.100816, 0.160886, 0.235098, 0.321464, 0.417129]</t>
+        </is>
+      </c>
+      <c r="AK47" s="3" t="n">
+        <v>0.00107505</v>
+      </c>
+      <c r="AL47" s="3" t="inlineStr">
+        <is>
+          <t>[-122.5246353149414, -121.92666625976562, -121.42961120605469, -120.03114318847656, -118.75617218017578]</t>
+        </is>
+      </c>
+      <c r="AM47" s="3" t="n">
+        <v>0.1588914965104777</v>
+      </c>
+      <c r="AN47" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO47" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP47" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ47" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR47" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS47" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT47" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU47" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Intel)</t>
+        </is>
+      </c>
+      <c r="AV47" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Intel, Intel(R) Iris(R) Xe Graphics (0x0000A7A0) Direct3D11 vs_5_0 ps_5_0, D3D11)</t>
+        </is>
+      </c>
+      <c r="AW47" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Intel)</t>
+        </is>
+      </c>
+      <c r="AX47" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Intel, Intel(R) Iris(R) Xe Graphics (0x0000A7A0) Direct3D11 vs_5_0 ps_5_0, D3D11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr">
+        <is>
+          <t>guest</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-11T18:01:09</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>1.203.169.148</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E48" s="3" t="inlineStr">
+        <is>
+          <t>https://magnus-unix.github.io/fingerprint/test.html</t>
+        </is>
+      </c>
+      <c r="F48" s="3" t="inlineStr">
+        <is>
+          <t>2025/9/12 02:01:13</t>
+        </is>
+      </c>
+      <c r="G48" s="3" t="inlineStr">
+        <is>
+          <t>2025/9/12 02:01:14</t>
+        </is>
+      </c>
+      <c r="H48" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'zh']</t>
+        </is>
+      </c>
+      <c r="K48" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="O48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/132.0.0.0 Safari/537.36 NetType/WIFI MicroMessenger/7.0.20.1781(0x6700143B) WindowsWechat(0x63090a13) UnifiedPCWindowsWechat(0xf2541022) XWEB/16467 Flue</t>
+        </is>
+      </c>
+      <c r="Q48" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/132.0.0.0 Safari/537.36 NetType/WIFI MicroMessenger/7.0.20.1781(0x6700143B) WindowsWechat(0x63090a13) UnifiedPCWindowsWechat(0xf2541022) XWEB/16467 Flue</t>
+        </is>
+      </c>
+      <c r="R48" s="3" t="inlineStr">
+        <is>
+          <t>Win32</t>
+        </is>
+      </c>
+      <c r="S48" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'zh']</t>
+        </is>
+      </c>
+      <c r="T48" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3" t="inlineStr"/>
+      <c r="V48" s="3" t="inlineStr"/>
+      <c r="W48" s="3" t="inlineStr">
+        <is>
+          <t>denied</t>
+        </is>
+      </c>
+      <c r="X48" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB48" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC48" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="AD48" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE48" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF48" s="3" t="inlineStr">
+        <is>
+          <t>Asia/Shanghai</t>
+        </is>
+      </c>
+      <c r="AG48" s="3" t="n">
+        <v>-480</v>
+      </c>
+      <c r="AH48" s="3" t="inlineStr"/>
+      <c r="AI48" s="3" t="inlineStr"/>
+      <c r="AJ48" s="3" t="inlineStr">
+        <is>
+          <t>[0, 0.001476, 0.008508, 0.025599, 0.05582, 0.100816, 0.160886, 0.235098, 0.321464, 0.417129]</t>
+        </is>
+      </c>
+      <c r="AK48" s="3" t="n">
+        <v>0.00107505</v>
+      </c>
+      <c r="AL48" s="3" t="inlineStr">
+        <is>
+          <t>[-119.21855163574219, -119.27249145507812, -118.82148742675781, -117.90512084960938, -117.02693176269531]</t>
+        </is>
+      </c>
+      <c r="AM48" s="3" t="n">
+        <v>0.1541146241943352</v>
+      </c>
+      <c r="AN48" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO48" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP48" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ48" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR48" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS48" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT48" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU48" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Intel)</t>
+        </is>
+      </c>
+      <c r="AV48" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Intel, Intel(R) Iris(R) Xe Graphics (0x0000A7A0) Direct3D11 vs_5_0 ps_5_0, D3D11)</t>
+        </is>
+      </c>
+      <c r="AW48" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Intel)</t>
+        </is>
+      </c>
+      <c r="AX48" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Intel, Intel(R) Iris(R) Xe Graphics (0x0000A7A0) Direct3D11 vs_5_0 ps_5_0, D3D11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>test111</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-11T18:01:37</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="inlineStr">
+        <is>
+          <t>1.203.169.148</t>
+        </is>
+      </c>
+      <c r="D49" s="3" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="E49" s="3" t="inlineStr">
+        <is>
+          <t>https://magnus-unix.github.io/fingerprint/login.html</t>
+        </is>
+      </c>
+      <c r="F49" s="3" t="inlineStr">
+        <is>
+          <t>2025/9/12 02:01:39</t>
+        </is>
+      </c>
+      <c r="G49" s="3" t="inlineStr">
+        <is>
+          <t>2025/9/12 02:01:42</t>
+        </is>
+      </c>
+      <c r="H49" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'en', 'zh']</t>
+        </is>
+      </c>
+      <c r="K49" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="O49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/139.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="Q49" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/139.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="R49" s="3" t="inlineStr">
+        <is>
+          <t>Win32</t>
+        </is>
+      </c>
+      <c r="S49" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'en', 'zh']</t>
+        </is>
+      </c>
+      <c r="T49" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3" t="inlineStr"/>
+      <c r="V49" s="3" t="inlineStr"/>
+      <c r="W49" s="3" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="X49" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA49" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB49" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC49" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="AD49" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE49" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF49" s="3" t="inlineStr">
+        <is>
+          <t>Asia/Shanghai</t>
+        </is>
+      </c>
+      <c r="AG49" s="3" t="n">
+        <v>-480</v>
+      </c>
+      <c r="AH49" s="3" t="inlineStr"/>
+      <c r="AI49" s="3" t="inlineStr"/>
+      <c r="AJ49" s="3" t="inlineStr">
+        <is>
+          <t>[0, 0.001476, 0.008508, 0.025599, 0.05582, 0.100816, 0.160886, 0.235098, 0.321464, 0.417129]</t>
+        </is>
+      </c>
+      <c r="AK49" s="3" t="n">
+        <v>0.00107505</v>
+      </c>
+      <c r="AL49" s="3" t="inlineStr"/>
+      <c r="AM49" s="3" t="inlineStr"/>
+      <c r="AN49" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO49" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP49" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ49" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR49" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS49" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT49" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU49" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Intel)</t>
+        </is>
+      </c>
+      <c r="AV49" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Intel, Intel(R) Iris(R) Xe Graphics (0x0000A7A0) Direct3D11 vs_5_0 ps_5_0, D3D11)</t>
+        </is>
+      </c>
+      <c r="AW49" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Intel)</t>
+        </is>
+      </c>
+      <c r="AX49" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Intel, Intel(R) Iris(R) Xe Graphics (0x0000A7A0) Direct3D11 vs_5_0 ps_5_0, D3D11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>guest</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-11T18:01:40</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>1.203.169.148</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t>test111</t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="inlineStr">
+        <is>
+          <t>https://magnus-unix.github.io/fingerprint/test.html</t>
+        </is>
+      </c>
+      <c r="F50" s="3" t="inlineStr">
+        <is>
+          <t>2025/9/12 02:01:44</t>
+        </is>
+      </c>
+      <c r="G50" s="3" t="inlineStr">
+        <is>
+          <t>2025/9/12 02:01:45</t>
+        </is>
+      </c>
+      <c r="H50" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J50" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'en', 'zh']</t>
+        </is>
+      </c>
+      <c r="K50" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="O50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/139.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="Q50" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/139.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="R50" s="3" t="inlineStr">
+        <is>
+          <t>Win32</t>
+        </is>
+      </c>
+      <c r="S50" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'en', 'zh']</t>
+        </is>
+      </c>
+      <c r="T50" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3" t="inlineStr"/>
+      <c r="V50" s="3" t="inlineStr"/>
+      <c r="W50" s="3" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="X50" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA50" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB50" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC50" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="AD50" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE50" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF50" s="3" t="inlineStr">
+        <is>
+          <t>Asia/Shanghai</t>
+        </is>
+      </c>
+      <c r="AG50" s="3" t="n">
+        <v>-480</v>
+      </c>
+      <c r="AH50" s="3" t="inlineStr"/>
+      <c r="AI50" s="3" t="inlineStr"/>
+      <c r="AJ50" s="3" t="inlineStr">
+        <is>
+          <t>[0, 0.001476, 0.008508, 0.025599, 0.05582, 0.100816, 0.160886, 0.235098, 0.321464, 0.417129]</t>
+        </is>
+      </c>
+      <c r="AK50" s="3" t="n">
+        <v>0.00107505</v>
+      </c>
+      <c r="AL50" s="3" t="inlineStr">
+        <is>
+          <t>[-123.38957214355469, -122.71612548828125, -122.10807800292969, -120.56049346923828, -119.15696716308594]</t>
+        </is>
+      </c>
+      <c r="AM50" s="3" t="n">
+        <v>0.1773549731879029</v>
+      </c>
+      <c r="AN50" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO50" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP50" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ50" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR50" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS50" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT50" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU50" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Intel)</t>
+        </is>
+      </c>
+      <c r="AV50" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Intel, Intel(R) Iris(R) Xe Graphics (0x0000A7A0) Direct3D11 vs_5_0 ps_5_0, D3D11)</t>
+        </is>
+      </c>
+      <c r="AW50" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Intel)</t>
+        </is>
+      </c>
+      <c r="AX50" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Intel, Intel(R) Iris(R) Xe Graphics (0x0000A7A0) Direct3D11 vs_5_0 ps_5_0, D3D11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-11T18:05:22</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>1.203.169.148</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="inlineStr"/>
+      <c r="E51" s="3" t="inlineStr">
+        <is>
+          <t>https://magnus-unix.github.io/fingerprint/login.html</t>
+        </is>
+      </c>
+      <c r="F51" s="3" t="inlineStr">
+        <is>
+          <t>2025/9/12 02:05:24</t>
+        </is>
+      </c>
+      <c r="G51" s="3" t="inlineStr">
+        <is>
+          <t>2025/9/12 02:05:27</t>
+        </is>
+      </c>
+      <c r="H51" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN']</t>
+        </is>
+      </c>
+      <c r="K51" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="O51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) HeadlessChrome/140.0.7339.16 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="Q51" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) HeadlessChrome/140.0.7339.16 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="R51" s="3" t="inlineStr">
+        <is>
+          <t>Win32</t>
+        </is>
+      </c>
+      <c r="S51" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN']</t>
+        </is>
+      </c>
+      <c r="T51" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3" t="inlineStr"/>
+      <c r="V51" s="3" t="inlineStr"/>
+      <c r="W51" s="3" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="X51" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z51" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB51" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC51" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="AD51" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE51" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF51" s="3" t="inlineStr">
+        <is>
+          <t>Asia/Shanghai</t>
+        </is>
+      </c>
+      <c r="AG51" s="3" t="n">
+        <v>-480</v>
+      </c>
+      <c r="AH51" s="3" t="inlineStr"/>
+      <c r="AI51" s="3" t="inlineStr"/>
+      <c r="AJ51" s="3" t="inlineStr">
+        <is>
+          <t>[0, 0.001476, 0.008508, 0.025599, 0.05582, 0.100816, 0.160886, 0.235098, 0.321464, 0.417129]</t>
+        </is>
+      </c>
+      <c r="AK51" s="3" t="n">
+        <v>0.00107505</v>
+      </c>
+      <c r="AL51" s="3" t="inlineStr"/>
+      <c r="AM51" s="3" t="inlineStr"/>
+      <c r="AN51" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO51" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP51" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ51" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR51" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS51" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT51" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU51" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Google)</t>
+        </is>
+      </c>
+      <c r="AV51" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Google, Vulkan 1.3.0 (SwiftShader Device (Subzero) (0x0000C0DE)), SwiftShader driver)</t>
+        </is>
+      </c>
+      <c r="AW51" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Google)</t>
+        </is>
+      </c>
+      <c r="AX51" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Google, Vulkan 1.3.0 (SwiftShader Device (Subzero) (0x0000C0DE)), SwiftShader driver)</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data/output.xlsx
+++ b/data/output.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV16"/>
+  <dimension ref="A1:AV37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3152,6 +3152,3518 @@
       <c r="AU16" s="3" t="inlineStr"/>
       <c r="AV16" s="3" t="inlineStr"/>
     </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>guest</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-15T11:58:03</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>202.120.235.244</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>https://magnus-unix.github.io/fingerprint/test.html</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr"/>
+      <c r="F17" s="3" t="inlineStr"/>
+      <c r="G17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="inlineStr">
+        <is>
+          <t>['en-US@posix']</t>
+        </is>
+      </c>
+      <c r="J17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="N17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/91.0.4472.124 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="P17" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/91.0.4472.124 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="Q17" s="3" t="inlineStr">
+        <is>
+          <t>Linux x86_64</t>
+        </is>
+      </c>
+      <c r="R17" s="3" t="inlineStr">
+        <is>
+          <t>['en-US@posix']</t>
+        </is>
+      </c>
+      <c r="S17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T17" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Google)</t>
+        </is>
+      </c>
+      <c r="U17" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Google, Vulkan 1.3.0 (SwiftShader Device (LLVM 10.0.0) (0x0000C0DE)), SwiftShader driver)</t>
+        </is>
+      </c>
+      <c r="V17" s="3" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="W17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA17" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB17" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="AC17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="3" t="inlineStr">
+        <is>
+          <t>UTC</t>
+        </is>
+      </c>
+      <c r="AF17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Google)</t>
+        </is>
+      </c>
+      <c r="AH17" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Google, Vulkan 1.3.0 (SwiftShader Device (LLVM 10.0.0) (0x0000C0DE)), SwiftShader driver)</t>
+        </is>
+      </c>
+      <c r="AI17" s="3" t="inlineStr">
+        <is>
+          <t>[0, 0.001476, 0.008508, 0.025599, 0.05582, 0.100816, 0.160886, 0.235098, 0.321464, 0.417129]</t>
+        </is>
+      </c>
+      <c r="AJ17" s="3" t="n">
+        <v>0.00107505</v>
+      </c>
+      <c r="AK17" s="3" t="inlineStr"/>
+      <c r="AL17" s="3" t="inlineStr"/>
+      <c r="AM17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="3" t="inlineStr"/>
+      <c r="AU17" s="3" t="inlineStr"/>
+      <c r="AV17" s="3" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>guest</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-15T11:58:18</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>202.120.235.244</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>https://magnus-unix.github.io/fingerprint/test.html</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr"/>
+      <c r="F18" s="3" t="inlineStr"/>
+      <c r="G18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="inlineStr">
+        <is>
+          <t>['en-US@posix']</t>
+        </is>
+      </c>
+      <c r="J18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="N18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/91.0.4472.124 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="P18" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/91.0.4472.124 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="Q18" s="3" t="inlineStr">
+        <is>
+          <t>Linux x86_64</t>
+        </is>
+      </c>
+      <c r="R18" s="3" t="inlineStr">
+        <is>
+          <t>['en-US@posix']</t>
+        </is>
+      </c>
+      <c r="S18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T18" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Google)</t>
+        </is>
+      </c>
+      <c r="U18" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Google, Vulkan 1.3.0 (SwiftShader Device (LLVM 10.0.0) (0x0000C0DE)), SwiftShader driver)</t>
+        </is>
+      </c>
+      <c r="V18" s="3" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="W18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA18" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB18" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="AC18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="3" t="inlineStr">
+        <is>
+          <t>UTC</t>
+        </is>
+      </c>
+      <c r="AF18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Google)</t>
+        </is>
+      </c>
+      <c r="AH18" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Google, Vulkan 1.3.0 (SwiftShader Device (LLVM 10.0.0) (0x0000C0DE)), SwiftShader driver)</t>
+        </is>
+      </c>
+      <c r="AI18" s="3" t="inlineStr">
+        <is>
+          <t>[0, 0.001476, 0.008508, 0.025599, 0.05582, 0.100816, 0.160886, 0.235098, 0.321464, 0.417129]</t>
+        </is>
+      </c>
+      <c r="AJ18" s="3" t="n">
+        <v>0.00107505</v>
+      </c>
+      <c r="AK18" s="3" t="inlineStr"/>
+      <c r="AL18" s="3" t="inlineStr"/>
+      <c r="AM18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="3" t="inlineStr"/>
+      <c r="AU18" s="3" t="inlineStr"/>
+      <c r="AV18" s="3" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>guest</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-15T13:03:46</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>94.177.131.31</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>https://magnus-unix.github.io/fingerprint/test.html</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr"/>
+      <c r="F19" s="3" t="inlineStr"/>
+      <c r="G19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I19" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'en', 'en-GB', 'en-US']</t>
+        </is>
+      </c>
+      <c r="J19" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M19" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="N19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/140.0.0.0 Safari/537.36 Edg/140.0.0.0</t>
+        </is>
+      </c>
+      <c r="P19" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/140.0.0.0 Safari/537.36 Edg/140.0.0.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="3" t="inlineStr">
+        <is>
+          <t>MacIntel</t>
+        </is>
+      </c>
+      <c r="R19" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'en', 'en-GB', 'en-US']</t>
+        </is>
+      </c>
+      <c r="S19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T19" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Apple)</t>
+        </is>
+      </c>
+      <c r="U19" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Apple, ANGLE Metal Renderer: Apple M3, Unspecified Version)</t>
+        </is>
+      </c>
+      <c r="V19" s="3" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="W19" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA19" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB19" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="AC19" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="3" t="inlineStr">
+        <is>
+          <t>Asia/Shanghai</t>
+        </is>
+      </c>
+      <c r="AF19" s="3" t="n">
+        <v>-480</v>
+      </c>
+      <c r="AG19" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Apple)</t>
+        </is>
+      </c>
+      <c r="AH19" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Apple, ANGLE Metal Renderer: Apple M3, Unspecified Version)</t>
+        </is>
+      </c>
+      <c r="AI19" s="3" t="inlineStr">
+        <is>
+          <t>[0, 0.001476, 0.008508, 0.025599, 0.05582, 0.100816, 0.160886, 0.235098, 0.321464, 0.417129]</t>
+        </is>
+      </c>
+      <c r="AJ19" s="3" t="n">
+        <v>0.00107505</v>
+      </c>
+      <c r="AK19" s="3" t="inlineStr"/>
+      <c r="AL19" s="3" t="inlineStr"/>
+      <c r="AM19" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO19" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP19" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ19" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="3" t="inlineStr"/>
+      <c r="AU19" s="3" t="inlineStr"/>
+      <c r="AV19" s="3" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>guest</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-15T14:03:26</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>202.120.235.244</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>https://magnus-unix.github.io/fingerprint/test.html</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr"/>
+      <c r="F20" s="3" t="inlineStr"/>
+      <c r="G20" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="inlineStr">
+        <is>
+          <t>['en-US@posix']</t>
+        </is>
+      </c>
+      <c r="J20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="N20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/91.0.4472.124 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="P20" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/91.0.4472.124 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="Q20" s="3" t="inlineStr">
+        <is>
+          <t>Linux x86_64</t>
+        </is>
+      </c>
+      <c r="R20" s="3" t="inlineStr">
+        <is>
+          <t>['en-US@posix']</t>
+        </is>
+      </c>
+      <c r="S20" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T20" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Google)</t>
+        </is>
+      </c>
+      <c r="U20" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Google, Vulkan 1.3.0 (SwiftShader Device (LLVM 10.0.0) (0x0000C0DE)), SwiftShader driver)</t>
+        </is>
+      </c>
+      <c r="V20" s="3" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="W20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA20" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB20" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="AC20" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="3" t="inlineStr">
+        <is>
+          <t>UTC</t>
+        </is>
+      </c>
+      <c r="AF20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Google)</t>
+        </is>
+      </c>
+      <c r="AH20" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Google, Vulkan 1.3.0 (SwiftShader Device (LLVM 10.0.0) (0x0000C0DE)), SwiftShader driver)</t>
+        </is>
+      </c>
+      <c r="AI20" s="3" t="inlineStr">
+        <is>
+          <t>[0, 0.001476, 0.008508, 0.025599, 0.05582, 0.100816, 0.160886, 0.235098, 0.321464, 0.417129]</t>
+        </is>
+      </c>
+      <c r="AJ20" s="3" t="n">
+        <v>0.00107505</v>
+      </c>
+      <c r="AK20" s="3" t="inlineStr"/>
+      <c r="AL20" s="3" t="inlineStr"/>
+      <c r="AM20" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO20" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP20" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ20" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="3" t="inlineStr"/>
+      <c r="AU20" s="3" t="inlineStr"/>
+      <c r="AV20" s="3" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-15T17:11:02</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>1.203.169.148</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>https://magnus-unix.github.io/fingerprint/login.html</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>24915.10000000149</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>25589.80000000075</v>
+      </c>
+      <c r="G21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'en', 'zh']</t>
+        </is>
+      </c>
+      <c r="J21" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M21" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="N21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/140.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="P21" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/140.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="Q21" s="3" t="inlineStr">
+        <is>
+          <t>Win32</t>
+        </is>
+      </c>
+      <c r="R21" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'en', 'zh']</t>
+        </is>
+      </c>
+      <c r="S21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Intel)</t>
+        </is>
+      </c>
+      <c r="U21" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Intel, Intel(R) Iris(R) Xe Graphics (0x0000A7A0) Direct3D11 vs_5_0 ps_5_0, D3D11)</t>
+        </is>
+      </c>
+      <c r="V21" s="3" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="W21" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA21" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB21" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="AC21" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="3" t="inlineStr">
+        <is>
+          <t>Asia/Shanghai</t>
+        </is>
+      </c>
+      <c r="AF21" s="3" t="n">
+        <v>-480</v>
+      </c>
+      <c r="AG21" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Intel)</t>
+        </is>
+      </c>
+      <c r="AH21" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Intel, Intel(R) Iris(R) Xe Graphics (0x0000A7A0) Direct3D11 vs_5_0 ps_5_0, D3D11)</t>
+        </is>
+      </c>
+      <c r="AI21" s="3" t="inlineStr">
+        <is>
+          <t>[0, 0.001476, 0.008508, 0.025599, 0.05582, 0.100816, 0.160886, 0.235098, 0.321464, 0.417129]</t>
+        </is>
+      </c>
+      <c r="AJ21" s="3" t="n">
+        <v>0.00107505</v>
+      </c>
+      <c r="AK21" s="3" t="inlineStr"/>
+      <c r="AL21" s="3" t="inlineStr"/>
+      <c r="AM21" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO21" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP21" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ21" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="3" t="inlineStr"/>
+      <c r="AU21" s="3" t="inlineStr"/>
+      <c r="AV21" s="3" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>guest</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-15T17:11:05</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>1.203.169.148</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>https://magnus-unix.github.io/fingerprint/test.html</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>543.5</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>1121.199999999255</v>
+      </c>
+      <c r="G22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'en', 'zh']</t>
+        </is>
+      </c>
+      <c r="J22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M22" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="N22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/140.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="P22" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/140.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="Q22" s="3" t="inlineStr">
+        <is>
+          <t>Win32</t>
+        </is>
+      </c>
+      <c r="R22" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'en', 'zh']</t>
+        </is>
+      </c>
+      <c r="S22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Intel)</t>
+        </is>
+      </c>
+      <c r="U22" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Intel, Intel(R) Iris(R) Xe Graphics (0x0000A7A0) Direct3D11 vs_5_0 ps_5_0, D3D11)</t>
+        </is>
+      </c>
+      <c r="V22" s="3" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="W22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA22" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB22" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="AC22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="3" t="inlineStr">
+        <is>
+          <t>Asia/Shanghai</t>
+        </is>
+      </c>
+      <c r="AF22" s="3" t="n">
+        <v>-480</v>
+      </c>
+      <c r="AG22" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Intel)</t>
+        </is>
+      </c>
+      <c r="AH22" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Intel, Intel(R) Iris(R) Xe Graphics (0x0000A7A0) Direct3D11 vs_5_0 ps_5_0, D3D11)</t>
+        </is>
+      </c>
+      <c r="AI22" s="3" t="inlineStr">
+        <is>
+          <t>[0, 0.001476, 0.008508, 0.025599, 0.05582, 0.100816, 0.160886, 0.235098, 0.321464, 0.417129]</t>
+        </is>
+      </c>
+      <c r="AJ22" s="3" t="n">
+        <v>0.00107505</v>
+      </c>
+      <c r="AK22" s="3" t="inlineStr"/>
+      <c r="AL22" s="3" t="inlineStr"/>
+      <c r="AM22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" s="3" t="inlineStr"/>
+      <c r="AU22" s="3" t="inlineStr"/>
+      <c r="AV22" s="3" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-15T17:11:45</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>1.203.169.148</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>https://magnus-unix.github.io/fingerprint/login.html</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>17405</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>18077</v>
+      </c>
+      <c r="G23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'zh', 'zh-TW', 'zh-HK', 'en-US', 'en']</t>
+        </is>
+      </c>
+      <c r="J23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M23" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="N23" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="O23" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64; rv:142.0) Gecko/20100101 Firefox/142.0</t>
+        </is>
+      </c>
+      <c r="P23" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64; rv:142.0) Gecko/20100101 Firefox/142.0</t>
+        </is>
+      </c>
+      <c r="Q23" s="3" t="inlineStr">
+        <is>
+          <t>Win32</t>
+        </is>
+      </c>
+      <c r="R23" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'zh', 'zh-TW', 'zh-HK', 'en-US', 'en']</t>
+        </is>
+      </c>
+      <c r="S23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Intel)</t>
+        </is>
+      </c>
+      <c r="U23" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Intel, Intel(R) HD Graphics Direct3D11 vs_5_0 ps_5_0), or similar</t>
+        </is>
+      </c>
+      <c r="V23" s="3" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="W23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB23" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="AC23" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="3" t="inlineStr">
+        <is>
+          <t>Asia/Shanghai</t>
+        </is>
+      </c>
+      <c r="AF23" s="3" t="n">
+        <v>-480</v>
+      </c>
+      <c r="AG23" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Intel)</t>
+        </is>
+      </c>
+      <c r="AH23" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Intel, Intel(R) HD Graphics Direct3D11 vs_5_0 ps_5_0), or similar</t>
+        </is>
+      </c>
+      <c r="AI23" s="3" t="inlineStr">
+        <is>
+          <t>[0, 0.001476, 0.008508, 0.025599, 0.05582, 0.100816, 0.160886, 0.235098, 0.321464, 0.417129]</t>
+        </is>
+      </c>
+      <c r="AJ23" s="3" t="n">
+        <v>0.00107505</v>
+      </c>
+      <c r="AK23" s="3" t="inlineStr"/>
+      <c r="AL23" s="3" t="inlineStr"/>
+      <c r="AM23" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN23" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ23" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" s="3" t="inlineStr"/>
+      <c r="AU23" s="3" t="inlineStr"/>
+      <c r="AV23" s="3" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>guest</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-15T17:11:47</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>1.203.169.148</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>https://magnus-unix.github.io/fingerprint/test.html</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>505</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>1070</v>
+      </c>
+      <c r="G24" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'zh', 'zh-TW', 'zh-HK', 'en-US', 'en']</t>
+        </is>
+      </c>
+      <c r="J24" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M24" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="N24" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="O24" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64; rv:142.0) Gecko/20100101 Firefox/142.0</t>
+        </is>
+      </c>
+      <c r="P24" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64; rv:142.0) Gecko/20100101 Firefox/142.0</t>
+        </is>
+      </c>
+      <c r="Q24" s="3" t="inlineStr">
+        <is>
+          <t>Win32</t>
+        </is>
+      </c>
+      <c r="R24" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'zh', 'zh-TW', 'zh-HK', 'en-US', 'en']</t>
+        </is>
+      </c>
+      <c r="S24" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Intel)</t>
+        </is>
+      </c>
+      <c r="U24" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Intel, Intel(R) HD Graphics Direct3D11 vs_5_0 ps_5_0), or similar</t>
+        </is>
+      </c>
+      <c r="V24" s="3" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="W24" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB24" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="AC24" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="3" t="inlineStr">
+        <is>
+          <t>Asia/Shanghai</t>
+        </is>
+      </c>
+      <c r="AF24" s="3" t="n">
+        <v>-480</v>
+      </c>
+      <c r="AG24" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Intel)</t>
+        </is>
+      </c>
+      <c r="AH24" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Intel, Intel(R) HD Graphics Direct3D11 vs_5_0 ps_5_0), or similar</t>
+        </is>
+      </c>
+      <c r="AI24" s="3" t="inlineStr">
+        <is>
+          <t>[0, 0.001476, 0.008508, 0.025599, 0.05582, 0.100816, 0.160886, 0.235098, 0.321464, 0.417129]</t>
+        </is>
+      </c>
+      <c r="AJ24" s="3" t="n">
+        <v>0.00107505</v>
+      </c>
+      <c r="AK24" s="3" t="inlineStr"/>
+      <c r="AL24" s="3" t="inlineStr"/>
+      <c r="AM24" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN24" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO24" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ24" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR24" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" s="3" t="inlineStr"/>
+      <c r="AU24" s="3" t="inlineStr"/>
+      <c r="AV24" s="3" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-16T13:25:10</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>1.203.169.167</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>https://magnus-unix.github.io/fingerprint/login.html</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>2431.599999999627</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>3209.099999999627</v>
+      </c>
+      <c r="G25" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN']</t>
+        </is>
+      </c>
+      <c r="J25" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="N25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) HeadlessChrome/140.0.7339.16 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="P25" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) HeadlessChrome/140.0.7339.16 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="Q25" s="3" t="inlineStr">
+        <is>
+          <t>Win32</t>
+        </is>
+      </c>
+      <c r="R25" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN']</t>
+        </is>
+      </c>
+      <c r="S25" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Google)</t>
+        </is>
+      </c>
+      <c r="U25" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Google, Vulkan 1.3.0 (SwiftShader Device (Subzero) (0x0000C0DE)), SwiftShader driver)</t>
+        </is>
+      </c>
+      <c r="V25" s="3" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="W25" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA25" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB25" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="AC25" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="3" t="inlineStr">
+        <is>
+          <t>Asia/Shanghai</t>
+        </is>
+      </c>
+      <c r="AF25" s="3" t="n">
+        <v>-480</v>
+      </c>
+      <c r="AG25" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Google)</t>
+        </is>
+      </c>
+      <c r="AH25" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Google, Vulkan 1.3.0 (SwiftShader Device (Subzero) (0x0000C0DE)), SwiftShader driver)</t>
+        </is>
+      </c>
+      <c r="AI25" s="3" t="inlineStr">
+        <is>
+          <t>[0, 0.001476, 0.008508, 0.025599, 0.05582, 0.100816, 0.160886, 0.235098, 0.321464, 0.417129]</t>
+        </is>
+      </c>
+      <c r="AJ25" s="3" t="n">
+        <v>0.00107505</v>
+      </c>
+      <c r="AK25" s="3" t="inlineStr"/>
+      <c r="AL25" s="3" t="inlineStr"/>
+      <c r="AM25" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN25" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO25" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP25" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ25" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR25" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" s="3" t="inlineStr"/>
+      <c r="AU25" s="3" t="inlineStr"/>
+      <c r="AV25" s="3" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>bot06</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-16T15:41:16</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>94.177.131.46</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>https://magnus-unix.github.io/fingerprint/login.html</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>91163.79999999702</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>91729.39999999106</v>
+      </c>
+      <c r="G26" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I26" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'zh']</t>
+        </is>
+      </c>
+      <c r="J26" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M26" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="N26" s="3" t="n">
+        <v>-270</v>
+      </c>
+      <c r="O26" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/140.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="P26" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/140.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="Q26" s="3" t="inlineStr">
+        <is>
+          <t>MacIntel</t>
+        </is>
+      </c>
+      <c r="R26" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'zh']</t>
+        </is>
+      </c>
+      <c r="S26" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Apple)</t>
+        </is>
+      </c>
+      <c r="U26" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Apple, ANGLE Metal Renderer: Apple M3, Unspecified Version)</t>
+        </is>
+      </c>
+      <c r="V26" s="3" t="inlineStr">
+        <is>
+          <t>granted</t>
+        </is>
+      </c>
+      <c r="W26" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X26" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA26" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB26" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="AC26" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="3" t="inlineStr">
+        <is>
+          <t>Asia/Shanghai</t>
+        </is>
+      </c>
+      <c r="AF26" s="3" t="n">
+        <v>-480</v>
+      </c>
+      <c r="AG26" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Apple)</t>
+        </is>
+      </c>
+      <c r="AH26" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Apple, ANGLE Metal Renderer: Apple M3, Unspecified Version)</t>
+        </is>
+      </c>
+      <c r="AI26" s="3" t="inlineStr">
+        <is>
+          <t>[0, 0.001476, 0.008508, 0.025599, 0.05582, 0.100816, 0.160886, 0.235098, 0.321464, 0.417129]</t>
+        </is>
+      </c>
+      <c r="AJ26" s="3" t="n">
+        <v>0.00107505</v>
+      </c>
+      <c r="AK26" s="3" t="inlineStr"/>
+      <c r="AL26" s="3" t="inlineStr"/>
+      <c r="AM26" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN26" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO26" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP26" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ26" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR26" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" s="3" t="inlineStr"/>
+      <c r="AU26" s="3" t="inlineStr"/>
+      <c r="AV26" s="3" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>guest</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-16T15:41:22</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>94.177.131.46</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>https://magnus-unix.github.io/fingerprint/test.html</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>570</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>1099.40000000596</v>
+      </c>
+      <c r="G27" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I27" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'zh']</t>
+        </is>
+      </c>
+      <c r="J27" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M27" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="N27" s="3" t="n">
+        <v>-270</v>
+      </c>
+      <c r="O27" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/140.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="P27" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/140.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="Q27" s="3" t="inlineStr">
+        <is>
+          <t>MacIntel</t>
+        </is>
+      </c>
+      <c r="R27" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'zh']</t>
+        </is>
+      </c>
+      <c r="S27" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Apple)</t>
+        </is>
+      </c>
+      <c r="U27" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Apple, ANGLE Metal Renderer: Apple M3, Unspecified Version)</t>
+        </is>
+      </c>
+      <c r="V27" s="3" t="inlineStr">
+        <is>
+          <t>granted</t>
+        </is>
+      </c>
+      <c r="W27" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X27" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA27" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB27" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="AC27" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="3" t="inlineStr">
+        <is>
+          <t>Asia/Shanghai</t>
+        </is>
+      </c>
+      <c r="AF27" s="3" t="n">
+        <v>-480</v>
+      </c>
+      <c r="AG27" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Apple)</t>
+        </is>
+      </c>
+      <c r="AH27" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Apple, ANGLE Metal Renderer: Apple M3, Unspecified Version)</t>
+        </is>
+      </c>
+      <c r="AI27" s="3" t="inlineStr">
+        <is>
+          <t>[0, 0.001476, 0.008508, 0.025599, 0.05582, 0.100816, 0.160886, 0.235098, 0.321464, 0.417129]</t>
+        </is>
+      </c>
+      <c r="AJ27" s="3" t="n">
+        <v>0.00107505</v>
+      </c>
+      <c r="AK27" s="3" t="inlineStr"/>
+      <c r="AL27" s="3" t="inlineStr"/>
+      <c r="AM27" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN27" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO27" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP27" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ27" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR27" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" s="3" t="inlineStr"/>
+      <c r="AU27" s="3" t="inlineStr"/>
+      <c r="AV27" s="3" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>bot03</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-17T06:57:11</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>94.177.131.46</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>https://magnus-unix.github.io/fingerprint/login.html</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>17059.40000000596</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>17185.90000000596</v>
+      </c>
+      <c r="G28" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I28" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'zh', 'en-US']</t>
+        </is>
+      </c>
+      <c r="J28" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M28" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="N28" s="3" t="n">
+        <v>-16</v>
+      </c>
+      <c r="O28" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/139.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="P28" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/139.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="Q28" s="3" t="inlineStr">
+        <is>
+          <t>MacIntel</t>
+        </is>
+      </c>
+      <c r="R28" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'zh', 'en-US']</t>
+        </is>
+      </c>
+      <c r="S28" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Apple)</t>
+        </is>
+      </c>
+      <c r="U28" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Apple, ANGLE Metal Renderer: Apple M3, Unspecified Version)</t>
+        </is>
+      </c>
+      <c r="V28" s="3" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="W28" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X28" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA28" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB28" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="AC28" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="3" t="inlineStr">
+        <is>
+          <t>Asia/Shanghai</t>
+        </is>
+      </c>
+      <c r="AF28" s="3" t="n">
+        <v>-480</v>
+      </c>
+      <c r="AG28" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Apple)</t>
+        </is>
+      </c>
+      <c r="AH28" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Apple, ANGLE Metal Renderer: Apple M3, Unspecified Version)</t>
+        </is>
+      </c>
+      <c r="AI28" s="3" t="inlineStr">
+        <is>
+          <t>[0, 0.001476, 0.008508, 0.025599, 0.05582, 0.100816, 0.160886, 0.235098, 0.321464, 0.417129]</t>
+        </is>
+      </c>
+      <c r="AJ28" s="3" t="n">
+        <v>0.00107505</v>
+      </c>
+      <c r="AK28" s="3" t="inlineStr"/>
+      <c r="AL28" s="3" t="inlineStr"/>
+      <c r="AM28" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN28" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO28" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP28" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ28" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR28" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="3" t="inlineStr"/>
+      <c r="AU28" s="3" t="inlineStr"/>
+      <c r="AV28" s="3" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>bot03</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-17T06:57:11</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>94.177.131.46</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>https://magnus-unix.github.io/fingerprint/login.html</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>17059.40000000596</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>17591.5</v>
+      </c>
+      <c r="G29" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'zh', 'en-US']</t>
+        </is>
+      </c>
+      <c r="J29" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K29" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M29" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3" t="n">
+        <v>-16</v>
+      </c>
+      <c r="O29" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/139.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="P29" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/139.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="Q29" s="3" t="inlineStr">
+        <is>
+          <t>MacIntel</t>
+        </is>
+      </c>
+      <c r="R29" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'zh', 'en-US']</t>
+        </is>
+      </c>
+      <c r="S29" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Apple)</t>
+        </is>
+      </c>
+      <c r="U29" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Apple, ANGLE Metal Renderer: Apple M3, Unspecified Version)</t>
+        </is>
+      </c>
+      <c r="V29" s="3" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="W29" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X29" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB29" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="AC29" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="3" t="inlineStr">
+        <is>
+          <t>Asia/Shanghai</t>
+        </is>
+      </c>
+      <c r="AF29" s="3" t="n">
+        <v>-480</v>
+      </c>
+      <c r="AG29" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Apple)</t>
+        </is>
+      </c>
+      <c r="AH29" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Apple, ANGLE Metal Renderer: Apple M3, Unspecified Version)</t>
+        </is>
+      </c>
+      <c r="AI29" s="3" t="inlineStr">
+        <is>
+          <t>[0, 0.001476, 0.008508, 0.025599, 0.05582, 0.100816, 0.160886, 0.235098, 0.321464, 0.417129]</t>
+        </is>
+      </c>
+      <c r="AJ29" s="3" t="n">
+        <v>0.00107505</v>
+      </c>
+      <c r="AK29" s="3" t="inlineStr"/>
+      <c r="AL29" s="3" t="inlineStr"/>
+      <c r="AM29" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN29" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO29" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP29" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ29" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR29" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS29" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" s="3" t="inlineStr"/>
+      <c r="AU29" s="3" t="inlineStr"/>
+      <c r="AV29" s="3" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>guest</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-17T06:57:14</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>94.177.131.46</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>https://magnus-unix.github.io/fingerprint/test.html</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>300.9000000059605</v>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>834.0999999940395</v>
+      </c>
+      <c r="G30" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I30" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'zh', 'en-US']</t>
+        </is>
+      </c>
+      <c r="J30" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M30" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="N30" s="3" t="n">
+        <v>-16</v>
+      </c>
+      <c r="O30" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/139.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="P30" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/139.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="Q30" s="3" t="inlineStr">
+        <is>
+          <t>MacIntel</t>
+        </is>
+      </c>
+      <c r="R30" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'zh', 'en-US']</t>
+        </is>
+      </c>
+      <c r="S30" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Apple)</t>
+        </is>
+      </c>
+      <c r="U30" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Apple, ANGLE Metal Renderer: Apple M3, Unspecified Version)</t>
+        </is>
+      </c>
+      <c r="V30" s="3" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="W30" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA30" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB30" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="AC30" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="3" t="inlineStr">
+        <is>
+          <t>Asia/Shanghai</t>
+        </is>
+      </c>
+      <c r="AF30" s="3" t="n">
+        <v>-480</v>
+      </c>
+      <c r="AG30" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Apple)</t>
+        </is>
+      </c>
+      <c r="AH30" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Apple, ANGLE Metal Renderer: Apple M3, Unspecified Version)</t>
+        </is>
+      </c>
+      <c r="AI30" s="3" t="inlineStr">
+        <is>
+          <t>[0, 0.001476, 0.008508, 0.025599, 0.05582, 0.100816, 0.160886, 0.235098, 0.321464, 0.417129]</t>
+        </is>
+      </c>
+      <c r="AJ30" s="3" t="n">
+        <v>0.00107505</v>
+      </c>
+      <c r="AK30" s="3" t="inlineStr"/>
+      <c r="AL30" s="3" t="inlineStr"/>
+      <c r="AM30" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN30" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO30" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP30" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ30" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR30" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS30" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" s="3" t="inlineStr"/>
+      <c r="AU30" s="3" t="inlineStr"/>
+      <c r="AV30" s="3" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>bot02</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-17T07:04:37</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>52.41.230.44</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>https://magnus-unix.github.io/fingerprint/login.html</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>12749.70000000019</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>13376.5</v>
+      </c>
+      <c r="G31" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3" t="inlineStr">
+        <is>
+          <t>['en-US']</t>
+        </is>
+      </c>
+      <c r="J31" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="P31" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="Q31" s="3" t="inlineStr">
+        <is>
+          <t>MacIntel</t>
+        </is>
+      </c>
+      <c r="R31" s="3" t="inlineStr">
+        <is>
+          <t>['en-US']</t>
+        </is>
+      </c>
+      <c r="S31" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Apple)</t>
+        </is>
+      </c>
+      <c r="U31" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Apple, ANGLE Metal Renderer: Apple M1 Pro, Unspecified Version)</t>
+        </is>
+      </c>
+      <c r="V31" s="3" t="inlineStr">
+        <is>
+          <t>denied</t>
+        </is>
+      </c>
+      <c r="W31" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X31" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA31" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB31" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="AC31" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="3" t="inlineStr">
+        <is>
+          <t>UTC</t>
+        </is>
+      </c>
+      <c r="AF31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Apple)</t>
+        </is>
+      </c>
+      <c r="AH31" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Apple, ANGLE Metal Renderer: Apple M1 Pro, Unspecified Version)</t>
+        </is>
+      </c>
+      <c r="AI31" s="3" t="inlineStr">
+        <is>
+          <t>[0, 0.001476, 0.008508, 0.025599, 0.05582, 0.100816, 0.160886, 0.235098, 0.321464, 0.417129]</t>
+        </is>
+      </c>
+      <c r="AJ31" s="3" t="n">
+        <v>0.00107505</v>
+      </c>
+      <c r="AK31" s="3" t="inlineStr"/>
+      <c r="AL31" s="3" t="inlineStr"/>
+      <c r="AM31" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN31" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO31" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP31" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ31" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR31" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS31" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT31" s="3" t="inlineStr"/>
+      <c r="AU31" s="3" t="inlineStr"/>
+      <c r="AV31" s="3" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>guest</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-17T07:04:39</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>52.41.230.44</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>https://magnus-unix.github.io/fingerprint/test.html</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>168.2000000001863</v>
+      </c>
+      <c r="F32" s="3" t="n">
+        <v>758.9000000003725</v>
+      </c>
+      <c r="G32" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3" t="inlineStr">
+        <is>
+          <t>['en-US']</t>
+        </is>
+      </c>
+      <c r="J32" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="P32" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/124.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="Q32" s="3" t="inlineStr">
+        <is>
+          <t>MacIntel</t>
+        </is>
+      </c>
+      <c r="R32" s="3" t="inlineStr">
+        <is>
+          <t>['en-US']</t>
+        </is>
+      </c>
+      <c r="S32" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Apple)</t>
+        </is>
+      </c>
+      <c r="U32" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Apple, ANGLE Metal Renderer: Apple M1 Pro, Unspecified Version)</t>
+        </is>
+      </c>
+      <c r="V32" s="3" t="inlineStr">
+        <is>
+          <t>denied</t>
+        </is>
+      </c>
+      <c r="W32" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X32" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA32" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB32" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="AC32" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="3" t="inlineStr">
+        <is>
+          <t>UTC</t>
+        </is>
+      </c>
+      <c r="AF32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Apple)</t>
+        </is>
+      </c>
+      <c r="AH32" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Apple, ANGLE Metal Renderer: Apple M1 Pro, Unspecified Version)</t>
+        </is>
+      </c>
+      <c r="AI32" s="3" t="inlineStr">
+        <is>
+          <t>[0, 0.001476, 0.008508, 0.025599, 0.05582, 0.100816, 0.160886, 0.235098, 0.321464, 0.417129]</t>
+        </is>
+      </c>
+      <c r="AJ32" s="3" t="n">
+        <v>0.00107505</v>
+      </c>
+      <c r="AK32" s="3" t="inlineStr"/>
+      <c r="AL32" s="3" t="inlineStr"/>
+      <c r="AM32" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN32" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO32" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP32" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ32" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR32" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS32" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT32" s="3" t="inlineStr"/>
+      <c r="AU32" s="3" t="inlineStr"/>
+      <c r="AV32" s="3" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>bottest01</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-18T08:13:30</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>94.177.131.46</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="inlineStr">
+        <is>
+          <t>https://magnus-unix.github.io/fingerprint/login.html</t>
+        </is>
+      </c>
+      <c r="E33" s="3" t="n">
+        <v>24458.89999997616</v>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>24984.59999999404</v>
+      </c>
+      <c r="G33" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'en', 'en-GB', 'en-US']</t>
+        </is>
+      </c>
+      <c r="J33" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M33" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="N33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/140.0.0.0 Safari/537.36 Edg/140.0.0.0</t>
+        </is>
+      </c>
+      <c r="P33" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/140.0.0.0 Safari/537.36 Edg/140.0.0.0</t>
+        </is>
+      </c>
+      <c r="Q33" s="3" t="inlineStr">
+        <is>
+          <t>MacIntel</t>
+        </is>
+      </c>
+      <c r="R33" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'en', 'en-GB', 'en-US']</t>
+        </is>
+      </c>
+      <c r="S33" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Apple)</t>
+        </is>
+      </c>
+      <c r="U33" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Apple, ANGLE Metal Renderer: Apple M3, Unspecified Version)</t>
+        </is>
+      </c>
+      <c r="V33" s="3" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="W33" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X33" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA33" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB33" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="AC33" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="3" t="inlineStr">
+        <is>
+          <t>Asia/Shanghai</t>
+        </is>
+      </c>
+      <c r="AF33" s="3" t="n">
+        <v>-480</v>
+      </c>
+      <c r="AG33" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Apple)</t>
+        </is>
+      </c>
+      <c r="AH33" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Apple, ANGLE Metal Renderer: Apple M3, Unspecified Version)</t>
+        </is>
+      </c>
+      <c r="AI33" s="3" t="inlineStr">
+        <is>
+          <t>[0, 0.001476, 0.008508, 0.025599, 0.05582, 0.100816, 0.160886, 0.235098, 0.321464, 0.417129]</t>
+        </is>
+      </c>
+      <c r="AJ33" s="3" t="n">
+        <v>0.00107505</v>
+      </c>
+      <c r="AK33" s="3" t="inlineStr"/>
+      <c r="AL33" s="3" t="inlineStr"/>
+      <c r="AM33" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN33" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO33" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP33" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ33" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR33" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS33" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT33" s="3" t="inlineStr"/>
+      <c r="AU33" s="3" t="inlineStr"/>
+      <c r="AV33" s="3" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>bottest01</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-18T08:13:30</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>94.177.131.46</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t>https://magnus-unix.github.io/fingerprint/login.html</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="n">
+        <v>25558.59999999404</v>
+      </c>
+      <c r="F34" s="3" t="n">
+        <v>26096.19999998808</v>
+      </c>
+      <c r="G34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I34" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'en', 'en-GB', 'en-US']</t>
+        </is>
+      </c>
+      <c r="J34" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M34" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="N34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/140.0.0.0 Safari/537.36 Edg/140.0.0.0</t>
+        </is>
+      </c>
+      <c r="P34" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/140.0.0.0 Safari/537.36 Edg/140.0.0.0</t>
+        </is>
+      </c>
+      <c r="Q34" s="3" t="inlineStr">
+        <is>
+          <t>MacIntel</t>
+        </is>
+      </c>
+      <c r="R34" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'en', 'en-GB', 'en-US']</t>
+        </is>
+      </c>
+      <c r="S34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Apple)</t>
+        </is>
+      </c>
+      <c r="U34" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Apple, ANGLE Metal Renderer: Apple M3, Unspecified Version)</t>
+        </is>
+      </c>
+      <c r="V34" s="3" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="W34" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA34" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB34" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="AC34" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="3" t="inlineStr">
+        <is>
+          <t>Asia/Shanghai</t>
+        </is>
+      </c>
+      <c r="AF34" s="3" t="n">
+        <v>-480</v>
+      </c>
+      <c r="AG34" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Apple)</t>
+        </is>
+      </c>
+      <c r="AH34" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Apple, ANGLE Metal Renderer: Apple M3, Unspecified Version)</t>
+        </is>
+      </c>
+      <c r="AI34" s="3" t="inlineStr">
+        <is>
+          <t>[0, 0.001476, 0.008508, 0.025599, 0.05582, 0.100816, 0.160886, 0.235098, 0.321464, 0.417129]</t>
+        </is>
+      </c>
+      <c r="AJ34" s="3" t="n">
+        <v>0.00107505</v>
+      </c>
+      <c r="AK34" s="3" t="inlineStr"/>
+      <c r="AL34" s="3" t="inlineStr"/>
+      <c r="AM34" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN34" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO34" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP34" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ34" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT34" s="3" t="inlineStr"/>
+      <c r="AU34" s="3" t="inlineStr"/>
+      <c r="AV34" s="3" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>bottest01</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-18T08:13:33</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>94.177.131.46</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>https://magnus-unix.github.io/fingerprint/login.html</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>12175.09999999404</v>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>12723.19999998808</v>
+      </c>
+      <c r="G35" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'en', 'en-GB', 'en-US']</t>
+        </is>
+      </c>
+      <c r="J35" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K35" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M35" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="N35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/140.0.0.0 Safari/537.36 Edg/140.0.0.0</t>
+        </is>
+      </c>
+      <c r="P35" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/140.0.0.0 Safari/537.36 Edg/140.0.0.0</t>
+        </is>
+      </c>
+      <c r="Q35" s="3" t="inlineStr">
+        <is>
+          <t>MacIntel</t>
+        </is>
+      </c>
+      <c r="R35" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'en', 'en-GB', 'en-US']</t>
+        </is>
+      </c>
+      <c r="S35" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Apple)</t>
+        </is>
+      </c>
+      <c r="U35" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Apple, ANGLE Metal Renderer: Apple M3, Unspecified Version)</t>
+        </is>
+      </c>
+      <c r="V35" s="3" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="W35" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X35" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA35" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB35" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="AC35" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="3" t="inlineStr">
+        <is>
+          <t>Asia/Shanghai</t>
+        </is>
+      </c>
+      <c r="AF35" s="3" t="n">
+        <v>-480</v>
+      </c>
+      <c r="AG35" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Apple)</t>
+        </is>
+      </c>
+      <c r="AH35" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Apple, ANGLE Metal Renderer: Apple M3, Unspecified Version)</t>
+        </is>
+      </c>
+      <c r="AI35" s="3" t="inlineStr">
+        <is>
+          <t>[0, 0.001476, 0.008508, 0.025599, 0.05582, 0.100816, 0.160886, 0.235098, 0.321464, 0.417129]</t>
+        </is>
+      </c>
+      <c r="AJ35" s="3" t="n">
+        <v>0.00107505</v>
+      </c>
+      <c r="AK35" s="3" t="inlineStr"/>
+      <c r="AL35" s="3" t="inlineStr"/>
+      <c r="AM35" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN35" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO35" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP35" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ35" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR35" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS35" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT35" s="3" t="inlineStr"/>
+      <c r="AU35" s="3" t="inlineStr"/>
+      <c r="AV35" s="3" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>guest</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-18T08:13:34</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>94.177.131.46</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>https://magnus-unix.github.io/fingerprint/test.html</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>160.6999999880791</v>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>689.6999999880791</v>
+      </c>
+      <c r="G36" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I36" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'en', 'en-GB', 'en-US']</t>
+        </is>
+      </c>
+      <c r="J36" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K36" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M36" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="N36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/140.0.0.0 Safari/537.36 Edg/140.0.0.0</t>
+        </is>
+      </c>
+      <c r="P36" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/140.0.0.0 Safari/537.36 Edg/140.0.0.0</t>
+        </is>
+      </c>
+      <c r="Q36" s="3" t="inlineStr">
+        <is>
+          <t>MacIntel</t>
+        </is>
+      </c>
+      <c r="R36" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'en', 'en-GB', 'en-US']</t>
+        </is>
+      </c>
+      <c r="S36" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T36" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Apple)</t>
+        </is>
+      </c>
+      <c r="U36" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Apple, ANGLE Metal Renderer: Apple M3, Unspecified Version)</t>
+        </is>
+      </c>
+      <c r="V36" s="3" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="W36" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X36" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA36" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB36" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="AC36" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="3" t="inlineStr">
+        <is>
+          <t>Asia/Shanghai</t>
+        </is>
+      </c>
+      <c r="AF36" s="3" t="n">
+        <v>-480</v>
+      </c>
+      <c r="AG36" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Apple)</t>
+        </is>
+      </c>
+      <c r="AH36" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Apple, ANGLE Metal Renderer: Apple M3, Unspecified Version)</t>
+        </is>
+      </c>
+      <c r="AI36" s="3" t="inlineStr">
+        <is>
+          <t>[0, 0.001476, 0.008508, 0.025599, 0.05582, 0.100816, 0.160886, 0.235098, 0.321464, 0.417129]</t>
+        </is>
+      </c>
+      <c r="AJ36" s="3" t="n">
+        <v>0.00107505</v>
+      </c>
+      <c r="AK36" s="3" t="inlineStr"/>
+      <c r="AL36" s="3" t="inlineStr"/>
+      <c r="AM36" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN36" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO36" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP36" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ36" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR36" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS36" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT36" s="3" t="inlineStr"/>
+      <c r="AU36" s="3" t="inlineStr"/>
+      <c r="AV36" s="3" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>bottest01</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-18T08:13:34</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>94.177.131.46</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>https://magnus-unix.github.io/fingerprint/login.html</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="n">
+        <v>26608.89999997616</v>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>27133.39999997616</v>
+      </c>
+      <c r="G37" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I37" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'en', 'en-GB', 'en-US']</t>
+        </is>
+      </c>
+      <c r="J37" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K37" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M37" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="N37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/140.0.0.0 Safari/537.36 Edg/140.0.0.0</t>
+        </is>
+      </c>
+      <c r="P37" s="3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/140.0.0.0 Safari/537.36 Edg/140.0.0.0</t>
+        </is>
+      </c>
+      <c r="Q37" s="3" t="inlineStr">
+        <is>
+          <t>MacIntel</t>
+        </is>
+      </c>
+      <c r="R37" s="3" t="inlineStr">
+        <is>
+          <t>['zh-CN', 'en', 'en-GB', 'en-US']</t>
+        </is>
+      </c>
+      <c r="S37" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T37" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Apple)</t>
+        </is>
+      </c>
+      <c r="U37" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Apple, ANGLE Metal Renderer: Apple M3, Unspecified Version)</t>
+        </is>
+      </c>
+      <c r="V37" s="3" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="W37" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X37" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA37" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB37" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="AC37" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD37" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="3" t="inlineStr">
+        <is>
+          <t>Asia/Shanghai</t>
+        </is>
+      </c>
+      <c r="AF37" s="3" t="n">
+        <v>-480</v>
+      </c>
+      <c r="AG37" s="3" t="inlineStr">
+        <is>
+          <t>Google Inc. (Apple)</t>
+        </is>
+      </c>
+      <c r="AH37" s="3" t="inlineStr">
+        <is>
+          <t>ANGLE (Apple, ANGLE Metal Renderer: Apple M3, Unspecified Version)</t>
+        </is>
+      </c>
+      <c r="AI37" s="3" t="inlineStr">
+        <is>
+          <t>[0, 0.001476, 0.008508, 0.025599, 0.05582, 0.100816, 0.160886, 0.235098, 0.321464, 0.417129]</t>
+        </is>
+      </c>
+      <c r="AJ37" s="3" t="n">
+        <v>0.00107505</v>
+      </c>
+      <c r="AK37" s="3" t="inlineStr"/>
+      <c r="AL37" s="3" t="inlineStr"/>
+      <c r="AM37" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN37" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO37" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP37" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ37" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR37" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS37" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT37" s="3" t="inlineStr"/>
+      <c r="AU37" s="3" t="inlineStr"/>
+      <c r="AV37" s="3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
